--- a/biology/Zoologie/Coucou_de_l'Himalaya/Coucou_de_l'Himalaya.xlsx
+++ b/biology/Zoologie/Coucou_de_l'Himalaya/Coucou_de_l'Himalaya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coucou_de_l%27Himalaya</t>
+          <t>Coucou_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuculus saturatus
 Le Coucou de l'Himalaya, .Coucou oriental ou Coucou d'Orient  (Cuculus saturatus), parfois coucou de Blyth, est une espèce de coucou, oiseau de la famille des Cuculidae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coucou_de_l%27Himalaya</t>
+          <t>Coucou_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au printemps, pour la nidification, le coucou de l'Himalaya s'installe au pied de l'Himalaya  jusqu'au sud de la Chine et à Taïwan.
 En automne, il émigre en Asie du Sud-Est.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coucou_de_l%27Himalaya</t>
+          <t>Coucou_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coucou de l'Himalaya vit au printemps et en été dans des forêts de conifères, de bouleaux et dans les forêts de montagne ou des steppes parsemées de buissons.
-En automne et hiver, il vit dans les forêts tropicales[1].
+En automne et hiver, il vit dans les forêts tropicales.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coucou_de_l%27Himalaya</t>
+          <t>Coucou_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coucou de l'Himalaya mesure 32-33 cm de long.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coucou_de_l%27Himalaya</t>
+          <t>Coucou_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coucou_de_l%27Himalaya</t>
+          <t>Coucou_de_l'Himalaya</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,9 +654,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coucou de l'Himalaya est un parasite dont la femelle pond sa quinzaine d'œufs blancs ou brun clair et les dépose un à un dans les nids étrangers d'autres oiseaux, généralement des gobe-mouches, pie-grièches ou zostérops. Ensuite les œufs sont couvés par les parents nourriciers puis ceux-ci nourrissent d'insectes et de larves le jeune coucou[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coucou de l'Himalaya est un parasite dont la femelle pond sa quinzaine d'œufs blancs ou brun clair et les dépose un à un dans les nids étrangers d'autres oiseaux, généralement des gobe-mouches, pie-grièches ou zostérops. Ensuite les œufs sont couvés par les parents nourriciers puis ceux-ci nourrissent d'insectes et de larves le jeune coucou.
 </t>
         </is>
       </c>
